--- a/Design/Requirment Database.xlsx
+++ b/Design/Requirment Database.xlsx
@@ -1,26 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01. GREENWICH OF UNIVERSITY\COMP 1640 - Enterprise Web Software Development\00. Code\TesterBackEnd\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0704B4-2540-45FB-AC20-67B8EDFB0EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Tên Cột</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id </t>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>Cần có và duy nhất</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Cần có và duy nhất
+Tối thiểu 6 ký tự
+Tối đa 50 ký tự</t>
+  </si>
+  <si>
+    <t>Cần có
+Tối thiểu 6 ký tự</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Cần có và duy nhất
+Tối thiểu 6 ký tự
+Cần đúng định dạng email</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>group: 
+group_id, 
+group_name</t>
+  </si>
+  <si>
+    <t>Trỏ về bảng group</t>
+  </si>
+  <si>
+    <t>group_id: Number
+group_name: String</t>
+  </si>
+  <si>
+    <t>faculty: 
+faculty_id, 
+faculty_name</t>
+  </si>
+  <si>
+    <t>faculty_id: Number
+faculty_name: String</t>
+  </si>
+  <si>
+    <t>Trỏ về bảng faculty</t>
+  </si>
+  <si>
+    <t>Id của user</t>
+  </si>
+  <si>
+    <t>Tên của user để xác định user là ai</t>
+  </si>
+  <si>
+    <t>Password dùng để đăng nhập và làm những chức năng phụ</t>
+  </si>
+  <si>
+    <t>Email dùng để đăng nhập và gửi email trong một số trường hợp</t>
+  </si>
+  <si>
+    <t>Dùng để xác định quyền của người dùng</t>
+  </si>
+  <si>
+    <t>Dùng để xác định người dùng thuộc khoa nào</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Id của group</t>
+  </si>
+  <si>
+    <t>no_group</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Dùng để mô tả chức năng của người dùng này là gì</t>
+  </si>
+  <si>
+    <t>Tên của group</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +167,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +214,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +593,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>